--- a/documents/plot (version 1).xlsx
+++ b/documents/plot (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devdhar\Documents\TD3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD37CE1-8959-4AAB-BE65-B24A5C461C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D37396-B645-4B96-B09F-A4EE3D49443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E06E5C9F-2618-4ED2-B253-9698BD48B0A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E06E5C9F-2618-4ED2-B253-9698BD48B0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="InvertedPendulum" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>Return</t>
   </si>
@@ -85,6 +84,9 @@
   </si>
   <si>
     <t>11.616608799473278</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -348,7 +350,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Avg. Return</c:v>
+            <c:v>Return</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -386,67 +388,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>215.497980153908</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>365.81540259356098</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>332.32270810945198</c:v>
+                    <c:v>7.4684670448493202</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>391.35931623766999</c:v>
+                    <c:v>334.068555838468</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>128.58564796962</c:v>
+                    <c:v>381.33903288281402</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>376.47137929834702</c:v>
+                    <c:v>385.72172611871298</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>199.154492739159</c:v>
+                    <c:v>330.75917523176798</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>414.16034029544602</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>194.902099564868</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>231.18093071290599</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>547.58301735143198</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>385.29291471806403</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>229.350637723651</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>570.55935220982599</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>503.588861790392</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>647.54942018939903</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>562.73085626961995</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>678.83454144545203</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>636.85349800654899</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>658.50340390592896</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>192.40327610244501</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -458,67 +430,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>215.497980153908</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>365.81540259356098</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>332.32270810945198</c:v>
+                    <c:v>7.4684670448493202</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>391.35931623766999</c:v>
+                    <c:v>334.068555838468</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>128.58564796962</c:v>
+                    <c:v>381.33903288281402</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>376.47137929834702</c:v>
+                    <c:v>385.72172611871298</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>199.154492739159</c:v>
+                    <c:v>330.75917523176798</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>414.16034029544602</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>194.902099564868</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>231.18093071290599</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>547.58301735143198</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>385.29291471806403</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>229.350637723651</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>570.55935220982599</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>503.588861790392</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>647.54942018939903</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>562.73085626961995</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>678.83454144545203</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>636.85349800654899</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>658.50340390592896</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>192.40327610244501</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -547,136 +489,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3656.22109665479</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3681.1553613158098</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3654.51483284203</c:v>
+                  <c:v>996.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3673.4513145737301</c:v>
+                  <c:v>850.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3694.03955797356</c:v>
+                  <c:v>829.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3755.3934614713598</c:v>
+                  <c:v>827.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3577.8488635908202</c:v>
+                  <c:v>852.07999999999902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3698.1942219290299</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3741.4317452579699</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3702.4772092742</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3509.0266039886901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3574.7768664823602</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3611.6768745190502</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3417.9097623969601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3457.2220322230901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3048.3867567805901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3016.4035871623701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3063.60464580589</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2505.8848473961598</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2205.2711776278102</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2329.0554558844501</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +590,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Avg. Actions</c:v>
+            <c:v>Frequency</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -736,72 +618,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>959.93999999999903</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>955.57999999999902</c:v>
+                  <c:v>13.065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>941.56</c:v>
+                  <c:v>12.720988100254852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>938.33999999999901</c:v>
+                  <c:v>12.552316012226663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>934.56</c:v>
+                  <c:v>12.547319943095507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>930.6</c:v>
+                  <c:v>12.529909365558881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>883.7</c:v>
+                  <c:v>12.51701718148532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>894.1</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>889.46</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>874.54</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>822.87999999999897</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>819.83999999999901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>812.28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>770.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>763.04</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>668.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>650.28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>652.33999999999901</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>531.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>461.67999999999898</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>493.78</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +796,6 @@
         <c:axId val="1902592047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1060,7 +911,6 @@
         <c:axId val="2095311487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1085,11 +935,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Avg.</a:t>
+                  <a:t>Avg. </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Actions</a:t>
+                  <a:t>Frequency  (Hz)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1098,8 +948,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.8243211363285472"/>
-              <c:y val="0.28789796012340568"/>
+              <c:x val="0.82275250887756679"/>
+              <c:y val="8.6249781277340329E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1131,7 +981,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1197,8 +1047,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64250152848540987"/>
-          <c:y val="5.6042424521496229E-2"/>
+          <c:x val="0.64563878338737068"/>
+          <c:y val="2.270909886264217E-2"/>
           <c:w val="0.12921611857341364"/>
           <c:h val="0.20768591426071745"/>
         </c:manualLayout>
@@ -25420,23 +25270,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B598E2BF-3DDF-E787-63A1-F26A8E5BDA2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25477,7 +25327,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114730EE-91AF-4AB7-BE79-650274E915C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25508,9 +25358,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25520,7 +25370,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2361C20-7961-4758-81DC-4AD6CEB58948}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25558,9 +25408,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25570,7 +25420,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE134F1-DE86-4A5F-9419-0B412F91A160}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25608,9 +25458,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25620,7 +25470,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F02F07B-AAA5-48EB-B287-FC0B0B98E2BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25658,9 +25508,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25670,7 +25520,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8859226-F237-4F8B-910C-DDA82CECFBF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25708,9 +25558,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25720,7 +25570,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B5D13E-C5A8-46BF-B903-3D8B69A10B39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25758,9 +25608,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25770,7 +25620,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82002302-3756-414B-950E-871E28B83108}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25808,9 +25658,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25820,7 +25670,7 @@
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBA8A8D-B79F-43D9-92D0-46F5FC648480}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25870,7 +25720,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03144C7F-0428-41CA-ABF0-7609369818DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25901,9 +25751,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25913,7 +25763,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF84F78-F434-4BCD-A0A3-F952155FD353}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25951,9 +25801,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25963,7 +25813,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EF0138-2DB1-416B-BA69-CFF8C296B102}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26001,9 +25851,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26013,7 +25863,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41977DD5-284F-49EF-AA77-035512F32990}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26051,9 +25901,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26063,7 +25913,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F28E23-9322-43DB-BB31-1279F98B68F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26101,9 +25951,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26113,7 +25963,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A7B6D2-EC9B-4E80-BECC-D931674B8424}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26151,9 +26001,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26163,7 +26013,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9BF6E9-B065-4FA0-94C3-D2CD96A57DDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26201,9 +26051,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26213,7 +26063,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D31DED4-5212-4818-B894-2CC836D13AA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26263,7 +26113,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD9FB94-3A1C-7002-522C-D3C6ED716103}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26304,7 +26154,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5A4DBF-02CE-2E61-0F7D-791323CE69BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26354,7 +26204,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E08F5E-80AD-3342-DC87-ED3FE8A41104}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26404,7 +26254,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424C2F7D-FA26-D3D8-3240-D9FE8B134AF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26454,7 +26304,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F497DB-4CBB-5075-142E-2B5F715B97ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26504,7 +26354,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B608C73-21C6-B970-4BB7-02193E4A3619}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26554,7 +26404,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF430AF-EFFF-CC33-9EF4-12D650B54A8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26604,7 +26454,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41A8D36-5729-4D11-A7CE-014A3ACEF729}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26654,7 +26504,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54C8F0E-E19A-4675-A238-ABB96442060A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26685,9 +26535,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26697,7 +26547,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3E7851-A8A1-49AF-8F2A-A4B8987476E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26735,9 +26585,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26747,7 +26597,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48803982-10E5-4A48-B817-AAD1D1857494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26785,9 +26635,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26797,7 +26647,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222EDBF7-D301-41D4-A183-AE7E2CAC0DA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26835,9 +26685,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26847,7 +26697,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F077D3A-F05D-4CFB-874E-61F5632EDCE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26885,9 +26735,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26897,7 +26747,7 @@
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75546A03-8C75-4B3E-831D-54FDC555AA94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26935,9 +26785,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26947,7 +26797,7 @@
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D73A249-14FF-41B1-8DCA-E22EB4D8325A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26985,9 +26835,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>207</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>206</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26997,7 +26847,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1183C16E-7C57-4269-B7E3-0FC658AA4F1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27324,18 +27174,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5C4E58-33B9-4F3A-8711-8D1F6E8BA62E}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27348,300 +27199,257 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>3656.22109665479</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="1">
-        <v>215.497980153908</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>959.93999999999903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <f>D2/(A2 * 0.04)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>3681.1553613158098</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="1">
-        <v>365.81540259356098</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="1">
-        <v>955.57999999999902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>522.64</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">D3/(A3 * 0.04)</f>
+        <v>13.065999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>3654.51483284203</v>
+        <v>996.66</v>
       </c>
       <c r="B4" s="1">
-        <v>332.32270810945198</v>
+        <v>7.4684670448493202</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="1">
-        <v>941.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>507.14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12.720988100254852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3673.4513145737301</v>
+        <v>850.6</v>
       </c>
       <c r="B5" s="1">
-        <v>391.35931623766999</v>
+        <v>334.068555838468</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="1">
-        <v>938.33999999999901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>427.08</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12.552316012226663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3694.03955797356</v>
+        <v>829.46</v>
       </c>
       <c r="B6" s="1">
-        <v>128.58564796962</v>
+        <v>381.33903288281402</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D6" s="1">
-        <v>934.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>416.3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12.547319943095507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3755.3934614713598</v>
+        <v>827.5</v>
       </c>
       <c r="B7" s="1">
-        <v>376.47137929834702</v>
+        <v>385.72172611871298</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="1">
-        <v>930.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>414.73999999999899</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12.529909365558881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>3577.8488635908202</v>
+        <v>852.07999999999902</v>
       </c>
       <c r="B8" s="1">
-        <v>199.154492739159</v>
+        <v>330.75917523176798</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="D8" s="1">
-        <v>883.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>426.62</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>12.51701718148532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>3698.1942219290299</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="1">
-        <v>414.16034029544602</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="D9" s="1">
-        <v>894.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>3741.4317452579699</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="1">
-        <v>194.902099564868</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="D10" s="1">
-        <v>889.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>3702.4772092742</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="1">
-        <v>231.18093071290599</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="D11" s="1">
-        <v>874.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>3509.0266039886901</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="1">
-        <v>547.58301735143198</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>822.87999999999897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>3574.7768664823602</v>
-      </c>
-      <c r="B13" s="1">
-        <v>385.29291471806403</v>
-      </c>
-      <c r="C13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>819.83999999999901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>3611.6768745190502</v>
-      </c>
-      <c r="B14" s="1">
-        <v>229.350637723651</v>
-      </c>
-      <c r="C14">
-        <v>1.2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>812.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>3417.9097623969601</v>
-      </c>
-      <c r="B15" s="1">
-        <v>570.55935220982599</v>
-      </c>
-      <c r="C15">
-        <v>1.3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>770.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>3457.2220322230901</v>
-      </c>
-      <c r="B16" s="1">
-        <v>503.588861790392</v>
-      </c>
-      <c r="C16">
-        <v>1.4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>763.04</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>3048.3867567805901</v>
-      </c>
-      <c r="B17" s="1">
-        <v>647.54942018939903</v>
-      </c>
-      <c r="C17">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>668.4</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>3016.4035871623701</v>
-      </c>
-      <c r="B18" s="1">
-        <v>562.73085626961995</v>
-      </c>
-      <c r="C18">
-        <v>1.6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>650.28</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>3063.60464580589</v>
-      </c>
-      <c r="B19" s="1">
-        <v>678.83454144545203</v>
-      </c>
-      <c r="C19">
-        <v>1.7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>652.33999999999901</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>2505.8848473961598</v>
-      </c>
-      <c r="B20" s="1">
-        <v>636.85349800654899</v>
-      </c>
-      <c r="C20">
-        <v>1.8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>531.20000000000005</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>2205.2711776278102</v>
-      </c>
-      <c r="B21" s="1">
-        <v>658.50340390592896</v>
-      </c>
-      <c r="C21">
-        <v>1.9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>461.67999999999898</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>2329.0554558844501</v>
-      </c>
-      <c r="B22" s="1">
-        <v>192.40327610244501</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>493.78</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27655,7 +27463,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
@@ -34833,22 +34641,22 @@
         <v>3.9043852778122199</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D202" si="15">B195+C195</f>
+        <f t="shared" ref="D195:D201" si="15">B195+C195</f>
         <v>9315.1055787011828</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E202" si="16">B195-C195</f>
+        <f t="shared" ref="E195:E201" si="16">B195-C195</f>
         <v>9307.2968081455583</v>
       </c>
       <c r="F195" s="9">
         <v>13.134509655138199</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G202" si="17">A195+F195</f>
+        <f t="shared" ref="G195:G201" si="17">A195+F195</f>
         <v>9364.3312162678285</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H202" si="18">A195-F195</f>
+        <f t="shared" ref="H195:H201" si="18">A195-F195</f>
         <v>9338.0621969575532</v>
       </c>
       <c r="I195">
@@ -35129,33 +34937,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId4" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4097" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4103" r:id="rId4" name="Control 7"/>
+        <control shapeId="4097" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId6" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4098" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35165,22 +34973,22 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4102" r:id="rId6" name="Control 6"/>
+        <control shapeId="4098" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId7" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4099" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -35190,22 +34998,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId7" name="Control 5"/>
+        <control shapeId="4099" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="4100" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -35215,9 +35023,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -35229,8 +35037,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId9" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4101" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -35240,22 +35048,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId9" name="Control 3"/>
+        <control shapeId="4101" r:id="rId9" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId10" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4102" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35265,41 +35073,41 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId10" name="Control 2"/>
+        <control shapeId="4102" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId11" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="4103" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId11" name="Control 1"/>
+        <control shapeId="4103" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -42489,22 +42297,22 @@
         <v>1124.8124084369799</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D202" si="15">B195+C195</f>
+        <f t="shared" ref="D195:D201" si="15">B195+C195</f>
         <v>3838.4233032427101</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E202" si="16">B195-C195</f>
+        <f t="shared" ref="E195:E201" si="16">B195-C195</f>
         <v>1588.79848636875</v>
       </c>
       <c r="F195" s="9">
         <v>442.01007085915501</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G202" si="17">A195+F195</f>
+        <f t="shared" ref="G195:G201" si="17">A195+F195</f>
         <v>3869.614780900195</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H202" si="18">A195-F195</f>
+        <f t="shared" ref="H195:H201" si="18">A195-F195</f>
         <v>2985.5946391818852</v>
       </c>
       <c r="I195">
@@ -42785,33 +42593,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId4" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3073" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId4" name="Control 7"/>
+        <control shapeId="3073" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId6" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -42821,22 +42629,22 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId6" name="Control 6"/>
+        <control shapeId="3074" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId7" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3075" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -42846,22 +42654,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId7" name="Control 5"/>
+        <control shapeId="3075" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="3076" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -42871,9 +42679,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -42885,8 +42693,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId9" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3077" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -42896,22 +42704,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId9" name="Control 3"/>
+        <control shapeId="3077" r:id="rId9" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId10" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3078" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -42921,41 +42729,41 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId10" name="Control 2"/>
+        <control shapeId="3078" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId11" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="3079" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId11" name="Control 1"/>
+        <control shapeId="3079" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -50145,22 +49953,22 @@
         <v>1006.84413479791</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D202" si="15">B195+C195</f>
+        <f t="shared" ref="D195:D201" si="15">B195+C195</f>
         <v>3409.7900985029901</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E202" si="16">B195-C195</f>
+        <f t="shared" ref="E195:E201" si="16">B195-C195</f>
         <v>1396.1018289071699</v>
       </c>
       <c r="F195" s="9">
         <v>653.18601428782597</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G202" si="17">A195+F195</f>
+        <f t="shared" ref="G195:G201" si="17">A195+F195</f>
         <v>3373.6920248662759</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H202" si="18">A195-F195</f>
+        <f t="shared" ref="H195:H201" si="18">A195-F195</f>
         <v>2067.3199962906242</v>
       </c>
       <c r="I195">
@@ -50441,7 +50249,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="Control 1">
+        <control shapeId="2055" r:id="rId4" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>207</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId4" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId6" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>207</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId6" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId7" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50461,57 +50319,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+        <control shapeId="2053" r:id="rId7" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -50541,7 +50349,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId9" name="Control 5">
+        <control shapeId="2051" r:id="rId9" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50561,12 +50369,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId9" name="Control 5"/>
+        <control shapeId="2051" r:id="rId9" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId10" name="Control 6">
+        <control shapeId="2050" r:id="rId10" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50586,22 +50394,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId10" name="Control 6"/>
+        <control shapeId="2050" r:id="rId10" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId11" name="Control 7">
+        <control shapeId="2049" r:id="rId11" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>207</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
@@ -50611,7 +50419,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId11" name="Control 7"/>
+        <control shapeId="2049" r:id="rId11" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -57797,22 +57605,22 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D202" si="15">B195+C195</f>
+        <f t="shared" ref="D195:D201" si="15">B195+C195</f>
         <v>1000</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E202" si="16">B195-C195</f>
+        <f t="shared" ref="E195:E201" si="16">B195-C195</f>
         <v>1000</v>
       </c>
       <c r="F195" s="9">
         <v>0</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G202" si="17">A195+F195</f>
+        <f t="shared" ref="G195:G201" si="17">A195+F195</f>
         <v>1000</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H202" si="18">A195-F195</f>
+        <f t="shared" ref="H195:H201" si="18">A195-F195</f>
         <v>1000</v>
       </c>
       <c r="I195">
@@ -58093,33 +57901,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId4" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5121" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5127" r:id="rId4" name="Control 7"/>
+        <control shapeId="5121" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId6" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5122" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -58129,22 +57937,22 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId6" name="Control 6"/>
+        <control shapeId="5122" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId7" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5123" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -58154,22 +57962,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId7" name="Control 5"/>
+        <control shapeId="5123" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="5124" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -58179,9 +57987,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -58193,8 +58001,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId9" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5125" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -58204,22 +58012,22 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5123" r:id="rId9" name="Control 3"/>
+        <control shapeId="5125" r:id="rId9" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId10" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5126" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -58229,41 +58037,41 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId10" name="Control 2"/>
+        <control shapeId="5126" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId11" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="5127" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>207</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId11" name="Control 1"/>
+        <control shapeId="5127" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/documents/plot (version 1).xlsx
+++ b/documents/plot (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devdhar\Documents\TD3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D37396-B645-4B96-B09F-A4EE3D49443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717BDE6E-7165-4D8F-8BEC-CBC268D0BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E06E5C9F-2618-4ED2-B253-9698BD48B0A5}"/>
   </bookViews>
@@ -388,37 +388,67 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>181.53507104552199</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>117.976453268944</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4684670448493202</c:v>
+                    <c:v>148.36735465094799</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>334.068555838468</c:v>
+                    <c:v>293.97159387594502</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>381.33903288281402</c:v>
+                    <c:v>271.40423496169097</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>385.72172611871298</c:v>
+                    <c:v>202.142080612445</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>330.75917523176798</c:v>
+                    <c:v>168.41491328737499</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>245.20150156731299</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>326.35933484817099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>207.33786685464901</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>382.05586142098099</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>391.532873085728</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>639.16080026551595</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>471.93316308458901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>675.54998483527504</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>708.34898788302201</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>884.63187589525103</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1040.40419931975</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>928.80851802091001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>689.15076570429198</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>192.40327610244501</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -430,37 +460,67 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>181.53507104552199</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>117.976453268944</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4684670448493202</c:v>
+                    <c:v>148.36735465094799</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>334.068555838468</c:v>
+                    <c:v>293.97159387594502</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>381.33903288281402</c:v>
+                    <c:v>271.40423496169097</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>385.72172611871298</c:v>
+                    <c:v>202.142080612445</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>330.75917523176798</c:v>
+                    <c:v>168.41491328737499</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>245.20150156731299</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>326.35933484817099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>207.33786685464901</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>382.05586142098099</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>391.532873085728</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>639.16080026551595</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>471.93316308458901</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>675.54998483527504</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>708.34898788302201</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>884.63187589525103</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1040.40419931975</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>928.80851802091001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>689.15076570429198</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>192.40327610244501</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -489,76 +549,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>3611.5644428549199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>3692.6061082404499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>996.66</c:v>
+                  <c:v>3453.7084865664401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>850.6</c:v>
+                  <c:v>3530.2138318964198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>829.46</c:v>
+                  <c:v>3469.4616519265701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>827.5</c:v>
+                  <c:v>3571.1195139042202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>852.07999999999902</c:v>
+                  <c:v>3571.1306569950402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>3495.9605226751501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>3362.28079244846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>3335.4483067349602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000</c:v>
+                  <c:v>3474.7233903545798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3463.8399099744202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3208.0165425893001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3432.1877575491599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3003.1719432919499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2748.6318970235302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2675.82947135616</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2386.9131189145601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2265.3293746816898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1826.55676972782</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2329.0554558844501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +710,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Frequency</c:v>
+            <c:v>Actions</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -618,42 +738,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.065999999999999</c:v>
+                  <c:v>973.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.720988100254852</c:v>
+                  <c:v>913.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.552316012226663</c:v>
+                  <c:v>912.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.547319943095507</c:v>
+                  <c:v>894.33999999999901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.529909365558881</c:v>
+                  <c:v>900.57999999999902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.51701718148532</c:v>
+                  <c:v>883.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>850.93999999999903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5</c:v>
+                  <c:v>803.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.5</c:v>
+                  <c:v>786.46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5</c:v>
+                  <c:v>793.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>778.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>711.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>743.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>649.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>582.31999999999903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>555.93999999999903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>486.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>456.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>362.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>493.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,6 +946,7 @@
         <c:axId val="1902592047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -911,6 +1062,7 @@
         <c:axId val="2095311487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -935,12 +1087,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Avg. </a:t>
+                  <a:t>Avg. Actions</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t>Frequency  (Hz)</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -948,7 +1097,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82275250887756679"/>
+              <c:x val="0.84314466574031199"/>
               <c:y val="8.6249781277340329E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -27177,7 +27326,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27204,252 +27353,342 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>3611.5644428549199</v>
+      </c>
+      <c r="B2" s="9">
+        <v>181.53507104552199</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>1000</v>
+      <c r="D2" s="9">
+        <v>970</v>
       </c>
       <c r="E2">
-        <f>D2/(A2 * 0.04)</f>
-        <v>25</v>
+        <f>D2/(A2 * 0.05)</f>
+        <v>5.3716333480856893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="A3" s="9">
+        <v>3692.6061082404499</v>
+      </c>
+      <c r="B3" s="9">
+        <v>117.976453268944</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>522.64</v>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>973.42</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">D3/(A3 * 0.04)</f>
-        <v>13.065999999999999</v>
+        <f t="shared" ref="E3:E12" si="0">D3/(A3 * 0.05)</f>
+        <v>5.272265556988101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>996.66</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.4684670448493202</v>
+      <c r="A4" s="9">
+        <v>3453.7084865664401</v>
+      </c>
+      <c r="B4" s="9">
+        <v>148.36735465094799</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>507.14</v>
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>913.24</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>12.720988100254852</v>
+        <v>5.2884602365957765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>850.6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>334.068555838468</v>
+      <c r="A5" s="9">
+        <v>3530.2138318964198</v>
+      </c>
+      <c r="B5" s="9">
+        <v>293.97159387594502</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>427.08</v>
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>912.54</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>12.552316012226663</v>
+        <v>5.1698851313479004</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>829.46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>381.33903288281402</v>
+      <c r="A6" s="9">
+        <v>3469.4616519265701</v>
+      </c>
+      <c r="B6" s="9">
+        <v>271.40423496169097</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>416.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>894.33999999999901</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>12.547319943095507</v>
+        <v>5.1554972484182242</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>827.5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>385.72172611871298</v>
+      <c r="A7" s="9">
+        <v>3571.1195139042202</v>
+      </c>
+      <c r="B7" s="9">
+        <v>202.142080612445</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>414.73999999999899</v>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>900.57999999999902</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>12.529909365558881</v>
+        <v>5.0436844608172535</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>852.07999999999902</v>
-      </c>
-      <c r="B8" s="1">
-        <v>330.75917523176798</v>
+      <c r="A8" s="9">
+        <v>3571.1306569950402</v>
+      </c>
+      <c r="B8" s="9">
+        <v>168.41491328737499</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>426.62</v>
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>883.4</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>12.51701718148532</v>
+        <v>4.9474526969189343</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
+      <c r="A9" s="9">
+        <v>3495.9605226751501</v>
+      </c>
+      <c r="B9" s="9">
+        <v>245.20150156731299</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>500</v>
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>850.93999999999903</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>4.8681327748452361</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
+      <c r="A10" s="9">
+        <v>3362.28079244846</v>
+      </c>
+      <c r="B10" s="9">
+        <v>326.35933484817099</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>500</v>
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>803.68</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>4.7805644418814222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
+      <c r="A11" s="9">
+        <v>3335.4483067349602</v>
+      </c>
+      <c r="B11" s="9">
+        <v>207.33786685464901</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>500</v>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>786.46</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>4.7157678829078211</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
+      <c r="A12" s="9">
+        <v>3474.7233903545798</v>
+      </c>
+      <c r="B12" s="9">
+        <v>382.05586142098099</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>500</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>793.6</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>4.5678456144333071</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="9">
+        <v>3463.8399099744202</v>
+      </c>
+      <c r="B13" s="9">
+        <v>391.532873085728</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="9">
+        <v>778.76</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="9">
+        <v>3208.0165425893001</v>
+      </c>
+      <c r="B14" s="9">
+        <v>639.16080026551595</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>711.64</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="9">
+        <v>3432.1877575491599</v>
+      </c>
+      <c r="B15" s="9">
+        <v>471.93316308458901</v>
+      </c>
+      <c r="C15">
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>743.46</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="9">
+        <v>3003.1719432919499</v>
+      </c>
+      <c r="B16" s="9">
+        <v>675.54998483527504</v>
+      </c>
+      <c r="C16">
+        <v>1.4</v>
+      </c>
+      <c r="D16" s="9">
+        <v>649.08000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="9">
+        <v>2748.6318970235302</v>
+      </c>
+      <c r="B17" s="9">
+        <v>708.34898788302201</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>582.31999999999903</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="9">
+        <v>2675.82947135616</v>
+      </c>
+      <c r="B18" s="9">
+        <v>884.63187589525103</v>
+      </c>
+      <c r="C18">
+        <v>1.6</v>
+      </c>
+      <c r="D18" s="9">
+        <v>555.93999999999903</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="9">
+        <v>2386.9131189145601</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1040.40419931975</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>486.16</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="9">
+        <v>2265.3293746816898</v>
+      </c>
+      <c r="B20" s="9">
+        <v>928.80851802091001</v>
+      </c>
+      <c r="C20">
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="9">
+        <v>456.7</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="9">
+        <v>1826.55676972782</v>
+      </c>
+      <c r="B21" s="9">
+        <v>689.15076570429198</v>
+      </c>
+      <c r="C21">
+        <v>1.9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>362.16</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="9">
+        <v>2329.0554558844501</v>
+      </c>
+      <c r="B22" s="9">
+        <v>192.40327610244501</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>493.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34937,7 +35176,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="Control 1">
+        <control shapeId="4103" r:id="rId4" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId4" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId6" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId6" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId7" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -34957,57 +35246,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId7" name="Control 3"/>
+        <control shapeId="4101" r:id="rId7" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -35037,7 +35276,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId9" name="Control 5">
+        <control shapeId="4099" r:id="rId9" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -35057,12 +35296,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId9" name="Control 5"/>
+        <control shapeId="4099" r:id="rId9" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId10" name="Control 6">
+        <control shapeId="4098" r:id="rId10" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -35082,22 +35321,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4102" r:id="rId10" name="Control 6"/>
+        <control shapeId="4098" r:id="rId10" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId11" name="Control 7">
+        <control shapeId="4097" r:id="rId11" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>206</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
@@ -35107,7 +35346,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4103" r:id="rId11" name="Control 7"/>
+        <control shapeId="4097" r:id="rId11" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -42593,7 +42832,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3079" r:id="rId4" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3079" r:id="rId4" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId6" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3078" r:id="rId6" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId7" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -42613,57 +42902,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId7" name="Control 3"/>
+        <control shapeId="3077" r:id="rId7" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -42693,7 +42932,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId9" name="Control 5">
+        <control shapeId="3075" r:id="rId9" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -42713,12 +42952,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId9" name="Control 5"/>
+        <control shapeId="3075" r:id="rId9" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId10" name="Control 6">
+        <control shapeId="3074" r:id="rId10" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -42738,22 +42977,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId10" name="Control 6"/>
+        <control shapeId="3074" r:id="rId10" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId11" name="Control 7">
+        <control shapeId="3073" r:id="rId11" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>206</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
@@ -42763,7 +43002,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId11" name="Control 7"/>
+        <control shapeId="3073" r:id="rId11" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -50249,17 +50488,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId4" name="Control 7">
+        <control shapeId="2049" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>207</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
@@ -50269,12 +50508,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId4" name="Control 7"/>
+        <control shapeId="2049" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId6" name="Control 6">
+        <control shapeId="2050" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50294,12 +50533,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId6" name="Control 6"/>
+        <control shapeId="2050" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId7" name="Control 5">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50319,7 +50558,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId7" name="Control 5"/>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -50349,7 +50588,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId9" name="Control 3">
+        <control shapeId="2053" r:id="rId9" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50369,12 +50608,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId9" name="Control 3"/>
+        <control shapeId="2053" r:id="rId9" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId10" name="Control 2">
+        <control shapeId="2054" r:id="rId10" name="Control 6">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -50394,22 +50633,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId10" name="Control 2"/>
+        <control shapeId="2054" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId11" name="Control 1">
+        <control shapeId="2055" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>207</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
@@ -50419,7 +50658,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId11" name="Control 1"/>
+        <control shapeId="2055" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -57901,7 +58140,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="Control 1">
+        <control shapeId="5127" r:id="rId4" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5127" r:id="rId4" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId6" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>206</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId6" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId7" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -57921,57 +58210,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>206</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId7" name="Control 3"/>
+        <control shapeId="5125" r:id="rId7" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -58001,7 +58240,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId9" name="Control 5">
+        <control shapeId="5123" r:id="rId9" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -58021,12 +58260,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId9" name="Control 5"/>
+        <control shapeId="5123" r:id="rId9" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId10" name="Control 6">
+        <control shapeId="5122" r:id="rId10" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -58046,22 +58285,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId10" name="Control 6"/>
+        <control shapeId="5122" r:id="rId10" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId11" name="Control 7">
+        <control shapeId="5121" r:id="rId11" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>203</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>206</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
@@ -58071,7 +58310,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5127" r:id="rId11" name="Control 7"/>
+        <control shapeId="5121" r:id="rId11" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
